--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\StijnArnold\Documents\GitHub\We-Should-Boogie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ward van Hoof\Documents\GitHub\We-Should-Boogie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39CD2E8F-3B56-4E2B-99EA-038045406A4F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6AB235C-1CB8-4707-B97B-B6069FC467D3}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" activeTab="6" xr2:uid="{C7CAC92D-2285-4A15-A17B-BC7C46DE5E33}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>date 1, 2 of 3</t>
   </si>
@@ -112,6 +112,12 @@
   </si>
   <si>
     <t>data invoeren</t>
+  </si>
+  <si>
+    <t>EXTRAS</t>
+  </si>
+  <si>
+    <t>Call API to retrieve (lovely) adjectives</t>
   </si>
 </sst>
 </file>
@@ -590,78 +596,92 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04956B58-0B06-49C5-A244-190D87D9FFC6}">
-  <dimension ref="B2:J8"/>
+  <dimension ref="B2:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
+      <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="J3" t="s">
+      <c r="D3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" t="s">
+      <c r="C4" t="s">
         <v>19</v>
       </c>
-      <c r="J4" t="s">
+      <c r="D4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="F5" t="s">
+      <c r="C5" t="s">
         <v>21</v>
       </c>
-      <c r="J5" t="s">
+      <c r="D5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="F6" t="s">
+      <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="J6" t="s">
+      <c r="D6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="F7" t="s">
+      <c r="C7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>17</v>
       </c>
